--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1761674.025217006</v>
+        <v>-1764531.808693815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12456289.22960902</v>
+        <v>12456289.22960903</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>166.815712692502</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>219.6382886189885</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.98670343452742</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>219.6382886189885</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.384542125180673</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>156.2434429743993</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>176.086159055897</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>90.03653756768387</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>219.6382886189841</v>
       </c>
       <c r="X2" t="n">
-        <v>219.6382886189885</v>
+        <v>219.6382886189841</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>117.4307587576862</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.2675019952924</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>46.73162531578762</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>148.6658071658273</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>63.63322041738655</v>
       </c>
       <c r="U3" t="n">
-        <v>219.6382886189885</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>219.6382886189841</v>
       </c>
       <c r="W3" t="n">
-        <v>219.6382886189885</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>41.28571863058381</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>124.2081243741569</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.9115236686846</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>121.9354826582094</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>219.6382886189841</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>219.6382886189841</v>
       </c>
       <c r="X4" t="n">
-        <v>219.6382886189885</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>72.36698404190653</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,55 +908,55 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>13.11342416039166</v>
-      </c>
-      <c r="T5" t="n">
-        <v>212.2897156032233</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>263.7138800015061</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.18456372565624</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>96.2276024177926</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>121.7391931527093</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>17.28688718947226</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>211.6192744973908</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>9.899848027457677</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,13 +1190,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>99.80518312061083</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>98.34030182183322</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187819</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>250.7811435429886</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238362</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>180.330238561827</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695369</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74993283584265</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>79.36266849662834</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695312</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>152.2221689967083</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>80.56978887874629</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>137.7610225486942</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>58.21786903648848</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206807</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2369,13 +2369,13 @@
         <v>83.70251495695523</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>39.39795577638976</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>167.3637267182081</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>58.24570521548608</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>77.39507264402552</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,19 +3004,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W31" t="n">
-        <v>174.6548851776587</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652732</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,7 +3481,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
         <v>262.2383508445512</v>
@@ -3490,7 +3490,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>474.4026597284126</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="C2" t="n">
-        <v>474.4026597284126</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="D2" t="n">
-        <v>474.4026597284126</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="E2" t="n">
-        <v>474.4026597284126</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="F2" t="n">
-        <v>252.545802537515</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="G2" t="n">
-        <v>239.4279202804166</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="H2" t="n">
-        <v>17.57106308951908</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="I2" t="n">
-        <v>17.57106308951908</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="J2" t="n">
-        <v>32.94041018158174</v>
+        <v>32.94041018157986</v>
       </c>
       <c r="K2" t="n">
-        <v>106.7135956263328</v>
+        <v>106.7135956263291</v>
       </c>
       <c r="L2" t="n">
-        <v>235.1375174997791</v>
+        <v>235.137517499773</v>
       </c>
       <c r="M2" t="n">
-        <v>409.7033126687083</v>
+        <v>409.7033126686996</v>
       </c>
       <c r="N2" t="n">
-        <v>591.707573285224</v>
+        <v>591.7075732852124</v>
       </c>
       <c r="O2" t="n">
-        <v>750.2337743047431</v>
+        <v>750.2337743047289</v>
       </c>
       <c r="P2" t="n">
-        <v>851.0312183826642</v>
+        <v>851.031218382648</v>
       </c>
       <c r="Q2" t="n">
-        <v>878.5531544759541</v>
+        <v>878.5531544759364</v>
       </c>
       <c r="R2" t="n">
-        <v>874.1243240464787</v>
+        <v>878.5531544759364</v>
       </c>
       <c r="S2" t="n">
-        <v>874.1243240464787</v>
+        <v>720.731494905836</v>
       </c>
       <c r="T2" t="n">
-        <v>874.1243240464787</v>
+        <v>720.731494905836</v>
       </c>
       <c r="U2" t="n">
-        <v>696.25951691931</v>
+        <v>720.731494905836</v>
       </c>
       <c r="V2" t="n">
-        <v>696.25951691931</v>
+        <v>629.785497362721</v>
       </c>
       <c r="W2" t="n">
-        <v>696.25951691931</v>
+        <v>407.928640171828</v>
       </c>
       <c r="X2" t="n">
-        <v>474.4026597284126</v>
+        <v>186.071782980935</v>
       </c>
       <c r="Y2" t="n">
-        <v>474.4026597284126</v>
+        <v>186.071782980935</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284.6719581084749</v>
+        <v>176.8085180949742</v>
       </c>
       <c r="C3" t="n">
-        <v>166.055030070408</v>
+        <v>176.8085180949742</v>
       </c>
       <c r="D3" t="n">
-        <v>166.055030070408</v>
+        <v>176.8085180949742</v>
       </c>
       <c r="E3" t="n">
-        <v>166.055030070408</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="F3" t="n">
-        <v>166.055030070408</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="G3" t="n">
-        <v>166.055030070408</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="H3" t="n">
-        <v>64.7747250246581</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="I3" t="n">
-        <v>17.57106308951908</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="J3" t="n">
-        <v>17.57106308951908</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="K3" t="n">
-        <v>91.41754797720654</v>
+        <v>79.20862533481338</v>
       </c>
       <c r="L3" t="n">
-        <v>220.6193981187903</v>
+        <v>208.4104754763954</v>
       </c>
       <c r="M3" t="n">
-        <v>390.7487313487139</v>
+        <v>378.539808706317</v>
       </c>
       <c r="N3" t="n">
-        <v>608.1906370815126</v>
+        <v>567.5806040669513</v>
       </c>
       <c r="O3" t="n">
-        <v>758.906237520663</v>
+        <v>718.2962045060998</v>
       </c>
       <c r="P3" t="n">
-        <v>860.5357279518502</v>
+        <v>819.9256949372855</v>
       </c>
       <c r="Q3" t="n">
-        <v>878.5531544759541</v>
+        <v>878.5531544759364</v>
       </c>
       <c r="R3" t="n">
-        <v>878.5531544759541</v>
+        <v>878.5531544759364</v>
       </c>
       <c r="S3" t="n">
-        <v>728.3856724902699</v>
+        <v>878.5531544759364</v>
       </c>
       <c r="T3" t="n">
-        <v>728.3856724902699</v>
+        <v>814.277174256354</v>
       </c>
       <c r="U3" t="n">
-        <v>506.5288152993724</v>
+        <v>814.277174256354</v>
       </c>
       <c r="V3" t="n">
-        <v>506.5288152993724</v>
+        <v>592.4203170654609</v>
       </c>
       <c r="W3" t="n">
-        <v>284.6719581084749</v>
+        <v>592.4203170654609</v>
       </c>
       <c r="X3" t="n">
-        <v>284.6719581084749</v>
+        <v>384.5688168599281</v>
       </c>
       <c r="Y3" t="n">
-        <v>284.6719581084749</v>
+        <v>176.8085180949742</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.9122800923502</v>
+        <v>311.6722858939388</v>
       </c>
       <c r="C4" t="n">
-        <v>227.9122800923502</v>
+        <v>311.6722858939388</v>
       </c>
       <c r="D4" t="n">
-        <v>227.9122800923502</v>
+        <v>311.6722858939388</v>
       </c>
       <c r="E4" t="n">
-        <v>186.2095340008514</v>
+        <v>311.6722858939388</v>
       </c>
       <c r="F4" t="n">
-        <v>186.2095340008514</v>
+        <v>311.6722858939388</v>
       </c>
       <c r="G4" t="n">
-        <v>17.57106308951908</v>
+        <v>143.0338149826065</v>
       </c>
       <c r="H4" t="n">
-        <v>17.57106308951908</v>
+        <v>143.0338149826065</v>
       </c>
       <c r="I4" t="n">
-        <v>17.57106308951908</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="J4" t="n">
-        <v>17.57106308951908</v>
+        <v>17.57106308951873</v>
       </c>
       <c r="K4" t="n">
-        <v>115.0177570125939</v>
+        <v>115.0177570125928</v>
       </c>
       <c r="L4" t="n">
-        <v>295.2424101146144</v>
+        <v>295.2424101146123</v>
       </c>
       <c r="M4" t="n">
-        <v>495.6531605442184</v>
+        <v>495.6531605442152</v>
       </c>
       <c r="N4" t="n">
-        <v>696.7332076905119</v>
+        <v>696.7332076905077</v>
       </c>
       <c r="O4" t="n">
-        <v>866.4468814643553</v>
+        <v>866.4468814643502</v>
       </c>
       <c r="P4" t="n">
-        <v>877.7303735360105</v>
+        <v>877.7303735359933</v>
       </c>
       <c r="Q4" t="n">
-        <v>878.5531544759541</v>
+        <v>878.5531544759364</v>
       </c>
       <c r="R4" t="n">
-        <v>878.5531544759541</v>
+        <v>878.5531544759364</v>
       </c>
       <c r="S4" t="n">
-        <v>670.5617164267778</v>
+        <v>878.5531544759364</v>
       </c>
       <c r="T4" t="n">
-        <v>670.5617164267778</v>
+        <v>878.5531544759364</v>
       </c>
       <c r="U4" t="n">
-        <v>670.5617164267778</v>
+        <v>755.3860002757249</v>
       </c>
       <c r="V4" t="n">
-        <v>670.5617164267778</v>
+        <v>533.5291430848318</v>
       </c>
       <c r="W4" t="n">
-        <v>670.5617164267778</v>
+        <v>311.6722858939388</v>
       </c>
       <c r="X4" t="n">
-        <v>448.7048592358803</v>
+        <v>311.6722858939388</v>
       </c>
       <c r="Y4" t="n">
-        <v>227.9122800923502</v>
+        <v>311.6722858939388</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.7979242836798</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>294.4202677165018</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4202677165018</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165018</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4565,52 +4565,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1041.60963701573</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>827.1755808508576</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>827.1755808508576</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V5" t="n">
-        <v>827.1755808508576</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W5" t="n">
-        <v>827.1755808508576</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X5" t="n">
-        <v>560.7979242836798</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="Y5" t="n">
-        <v>560.7979242836798</v>
+        <v>114.1043876014619</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.787594686703</v>
+        <v>660.5440004277928</v>
       </c>
       <c r="C6" t="n">
-        <v>180.334565405576</v>
+        <v>486.0909711466658</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>337.1565614854145</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>177.919106479959</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>31.38454850684397</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267548</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166541</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166541</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>659.7474918534676</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>659.7474918534676</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>659.7474918534676</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>562.5478934516569</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y6" t="n">
-        <v>354.787594686703</v>
+        <v>828.7593374478608</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.9559398704645</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C7" t="n">
-        <v>290.9559398704645</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>290.9559398704645</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>290.9559398704645</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>144.0659923725541</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>144.0659923725541</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
         <v>21.09711040012049</v>
@@ -4726,49 +4726,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407072</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407072</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="T7" t="n">
-        <v>700.5939555987215</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="U7" t="n">
-        <v>700.5939555987215</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="V7" t="n">
-        <v>700.5939555987215</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="W7" t="n">
-        <v>700.5939555987215</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="X7" t="n">
-        <v>472.6044047007042</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.6044047007042</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>652.5759934195828</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C8" t="n">
-        <v>283.6134764791711</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D8" t="n">
-        <v>283.6134764791711</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4808,7 +4808,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2552.339481907774</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2343.593840513599</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2090.012779777779</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2090.012779777779</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>2090.012779777779</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>2090.012779777779</v>
       </c>
       <c r="Y8" t="n">
-        <v>652.5759934195828</v>
+        <v>1699.873447801967</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4857,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
         <v>298.3188265310613</v>
@@ -4890,22 +4890,22 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1209.25321078144</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>619.0260187740842</v>
+        <v>347.89877828689</v>
       </c>
       <c r="C10" t="n">
-        <v>450.0898358461773</v>
+        <v>347.89877828689</v>
       </c>
       <c r="D10" t="n">
-        <v>299.9731964338415</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>152.0601028514484</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1340.483734030487</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1051.365396534324</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.884232784815</v>
+        <v>796.6809083284375</v>
       </c>
       <c r="W10" t="n">
-        <v>1021.467062747854</v>
+        <v>796.6809083284375</v>
       </c>
       <c r="X10" t="n">
-        <v>1021.467062747854</v>
+        <v>568.6913574304201</v>
       </c>
       <c r="Y10" t="n">
-        <v>800.6744836043239</v>
+        <v>347.89877828689</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.77602655187</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611458</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004708</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406464</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168563</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797179</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398589</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492573</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474779</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466569</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122998</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591804</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615992</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5106,31 +5106,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273889</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803934</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092282</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249866</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.6145409888042</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888042</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797179</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1724.146794103447</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V13" t="n">
-        <v>1469.462305897552</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W13" t="n">
-        <v>1180.045135860591</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X13" t="n">
-        <v>952.055584962574</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.2630058190439</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191922</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349506</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061502</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616108</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.043492616108</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811332</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532263</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510506</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304619</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267659</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191922</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349506</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061502</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1520.445529061502</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2072.355259300788</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258104</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015256</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.155464951614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718729</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998425</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851662</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572593</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797183</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2321.111451512978</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>2101.509986535919</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1812.434759880117</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1557.75027167423</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956953</v>
+        <v>1268.333101637269</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058936</v>
+        <v>1040.343550739252</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.356899915406</v>
+        <v>819.5509715957215</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2407.167168654614</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2224.312334309519</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2004.71086933246</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,43 +6212,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797221</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6257,7 +6257,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
         <v>1859.536823237711</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,10 +6497,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.6442739835331</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1257.28228971179</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1029.292738813773</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.292738813773</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6877,13 +6877,13 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580128</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345491</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384035</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,28 +7096,28 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,28 +7193,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,22 +7312,22 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192741</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7843,10 +7843,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>9.761584969220692</v>
+        <v>9.76158496922146</v>
       </c>
       <c r="K3" t="n">
-        <v>12.33224509332476</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.68799027491133</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>41.02023536823025</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>23.4760657826118</v>
+        <v>23.47606578260044</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>211.0329012241559</v>
+        <v>255.5240487471581</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>215.9181289709785</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.2377571227229</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.9867034345274</v>
       </c>
       <c r="H2" t="n">
-        <v>96.11742946875577</v>
+        <v>315.7557180877444</v>
       </c>
       <c r="I2" t="n">
-        <v>121.1869856777803</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.9574103762715</v>
       </c>
       <c r="U2" t="n">
-        <v>75.07421112549093</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>331.0866692035804</v>
+        <v>129.6026800984289</v>
       </c>
       <c r="X2" t="n">
-        <v>150.0928120594805</v>
+        <v>150.0928120594849</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>105.1482440159854</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6.071366770048627</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>35.40333084625559</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>45.37941682721018</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>146.3469868924088</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>27.60981118522903</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>145.1398665102909</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>10.85445046951818</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>122.8084169651561</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>26.97729093373192</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>84.77391660561989</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>88.18825743108309</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>208.7894017452186</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W31" t="n">
-        <v>111.8681131589323</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.556088591314619e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1098946.028395178</v>
+        <v>1098946.028395177</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101551.2845365931</v>
+        <v>101551.284536593</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
-        <v>121071.9899535008</v>
+        <v>121071.9899535009</v>
       </c>
       <c r="F2" t="n">
         <v>121071.9899535009</v>
@@ -26344,13 +26344,13 @@
         <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>628756.2786403554</v>
+        <v>628756.2786403503</v>
       </c>
       <c r="C3" t="n">
-        <v>48789.17030728961</v>
+        <v>48789.17030729469</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245451</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.305927126235994e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>57467.04038742675</v>
+        <v>57467.04038742535</v>
       </c>
       <c r="K3" t="n">
-        <v>11343.64680293578</v>
+        <v>11343.646802937</v>
       </c>
       <c r="L3" t="n">
         <v>114810.3641312015</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184911.7492565351</v>
+        <v>184911.7492565362</v>
       </c>
       <c r="C4" t="n">
         <v>253911.4645514929</v>
@@ -26424,40 +26424,40 @@
         <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683057</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683054</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683056</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683054</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683054</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683052</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="M4" t="n">
+        <v>20987.72340992394</v>
+      </c>
+      <c r="N4" t="n">
+        <v>20987.72340992395</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20987.7234099239</v>
+      </c>
+      <c r="P4" t="n">
         <v>20987.72340992391</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20987.72340992392</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20987.72340992393</v>
-      </c>
-      <c r="O4" t="n">
-        <v>20987.72340992387</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20987.72340992389</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59540.88175864952</v>
+        <v>59540.88175864917</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-771657.625118947</v>
+        <v>-772017.7081346601</v>
       </c>
       <c r="C6" t="n">
-        <v>-242592.1725834062</v>
+        <v>-242592.1725834112</v>
       </c>
       <c r="D6" t="n">
         <v>-504860.9647489646</v>
       </c>
       <c r="E6" t="n">
-        <v>-500532.8456417818</v>
+        <v>-500567.5835672182</v>
       </c>
       <c r="F6" t="n">
-        <v>6952.595982763145</v>
+        <v>6917.858057327656</v>
       </c>
       <c r="G6" t="n">
-        <v>6952.595982763291</v>
+        <v>6917.85805732767</v>
       </c>
       <c r="H6" t="n">
-        <v>6952.595982763261</v>
+        <v>6917.85805732767</v>
       </c>
       <c r="I6" t="n">
-        <v>6952.59598276332</v>
+        <v>6917.858057327554</v>
       </c>
       <c r="J6" t="n">
-        <v>-50514.44440466342</v>
+        <v>-50549.18233009773</v>
       </c>
       <c r="K6" t="n">
-        <v>-4391.050820172401</v>
+        <v>-4425.788745609374</v>
       </c>
       <c r="L6" t="n">
         <v>-115805.9379153983</v>
       </c>
       <c r="M6" t="n">
-        <v>-133602.8675131233</v>
+        <v>-133602.8675131237</v>
       </c>
       <c r="N6" t="n">
-        <v>-995.5737841969676</v>
+        <v>-995.5737841968512</v>
       </c>
       <c r="O6" t="n">
-        <v>-995.5737841966911</v>
+        <v>-995.5737841968075</v>
       </c>
       <c r="P6" t="n">
-        <v>-995.5737841968075</v>
+        <v>-995.5737841967784</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26716,13 +26716,13 @@
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.1134775511478</v>
+        <v>576.113477551144</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.6382886189885</v>
+        <v>219.6382886189841</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,19 +26926,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-6.632408907794992e-14</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.1134775511478</v>
+        <v>576.113477551144</v>
       </c>
       <c r="C3" t="n">
-        <v>37.94153621833027</v>
+        <v>37.94153621833425</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224134</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.6382886189885</v>
+        <v>219.6382886189841</v>
       </c>
       <c r="C4" t="n">
-        <v>44.07559138251756</v>
+        <v>44.07559138252205</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996085</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>219.638288618989</v>
+        <v>219.6382886189836</v>
       </c>
       <c r="K4" t="n">
-        <v>44.07559138251756</v>
+        <v>44.0755913825225</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996085</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>219.6382886189885</v>
+        <v>219.6382886189841</v>
       </c>
       <c r="K4" t="n">
-        <v>44.07559138251756</v>
+        <v>44.07559138252205</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996085</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>121.1869856777809</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.384542125181639</v>
       </c>
       <c r="S2" t="n">
-        <v>156.243442974399</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.9574103762715</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1603701813879</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>237.715720902451</v>
       </c>
       <c r="W2" t="n">
-        <v>18.1542995138326</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>55.27774023062958</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1043296831949</v>
+        <v>136.104329683195</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.2675019952925</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>46.73162531578789</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.21950973552944</v>
+        <v>23.21950973552994</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>148.6658071658275</v>
       </c>
       <c r="T3" t="n">
-        <v>195.1699335451093</v>
+        <v>131.5367131277228</v>
       </c>
       <c r="U3" t="n">
-        <v>6.221567969879999</v>
+        <v>225.8598565888685</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>13.16229853044118</v>
       </c>
       <c r="W3" t="n">
-        <v>32.05669454193108</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.9904679001441</v>
+        <v>152.9904679001442</v>
       </c>
       <c r="I4" t="n">
-        <v>124.2081243741567</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19.90943397052072</v>
+        <v>19.90943397052119</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.5809772793338</v>
+        <v>130.5809772793341</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.9115236686847</v>
       </c>
       <c r="T4" t="n">
         <v>223.5066823061661</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2623624570596</v>
+        <v>164.3268797988503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>32.49935470484391</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>66.88470971760691</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>310.366857621574</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.6542690388306</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
         <v>106.0172206769629</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27713,7 +27713,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>33.73724027584936</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>109.5453827856849</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>30.64296618314749</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>187.4322770541215</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>170.3110955748709</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>113.5523673713367</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>45.61586490232041</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>122.4083941753787</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.718003765447065e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28144,13 +28144,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-8.145821901238003e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28330,16 +28330,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,19 +28375,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.662670001678634e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28570,10 +28570,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.236930640719947e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>8.016623958142218e-14</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.632408907794992e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30748,7 +30748,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.316034080607627</v>
+        <v>2.316034080607612</v>
       </c>
       <c r="H2" t="n">
-        <v>23.71908402802287</v>
+        <v>23.71908402802272</v>
       </c>
       <c r="I2" t="n">
-        <v>89.28890389262564</v>
+        <v>89.28890389262506</v>
       </c>
       <c r="J2" t="n">
-        <v>196.5704975489718</v>
+        <v>196.5704975489705</v>
       </c>
       <c r="K2" t="n">
-        <v>294.6082201810927</v>
+        <v>294.6082201810908</v>
       </c>
       <c r="L2" t="n">
-        <v>365.4875481754885</v>
+        <v>365.4875481754861</v>
       </c>
       <c r="M2" t="n">
-        <v>406.6753192564943</v>
+        <v>406.6753192564917</v>
       </c>
       <c r="N2" t="n">
-        <v>413.2557510880208</v>
+        <v>413.2557510880181</v>
       </c>
       <c r="O2" t="n">
-        <v>390.2256871989787</v>
+        <v>390.2256871989761</v>
       </c>
       <c r="P2" t="n">
-        <v>333.0485958339779</v>
+        <v>333.0485958339756</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.1056253222171</v>
+        <v>250.1056253222155</v>
       </c>
       <c r="R2" t="n">
-        <v>145.484575815969</v>
+        <v>145.484575815968</v>
       </c>
       <c r="S2" t="n">
-        <v>52.77662661184636</v>
+        <v>52.77662661184602</v>
       </c>
       <c r="T2" t="n">
-        <v>10.13843918785989</v>
+        <v>10.13843918785983</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1852827264486102</v>
+        <v>0.1852827264486089</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.239187480015676</v>
+        <v>1.239187480015668</v>
       </c>
       <c r="H3" t="n">
-        <v>11.96794224120403</v>
+        <v>11.96794224120396</v>
       </c>
       <c r="I3" t="n">
-        <v>42.66500753562746</v>
+        <v>42.66500753562718</v>
       </c>
       <c r="J3" t="n">
-        <v>117.076041697446</v>
+        <v>117.0760416974452</v>
       </c>
       <c r="K3" t="n">
-        <v>200.1016028584963</v>
+        <v>200.101602858495</v>
       </c>
       <c r="L3" t="n">
-        <v>269.0612991148073</v>
+        <v>269.0612991148055</v>
       </c>
       <c r="M3" t="n">
-        <v>313.9818452653755</v>
+        <v>313.9818452653735</v>
       </c>
       <c r="N3" t="n">
-        <v>322.2920104274105</v>
+        <v>322.2920104274084</v>
       </c>
       <c r="O3" t="n">
-        <v>294.8342246860105</v>
+        <v>294.8342246860086</v>
       </c>
       <c r="P3" t="n">
-        <v>236.6304583549233</v>
+        <v>236.6304583549218</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.1811948174397</v>
+        <v>158.1811948174386</v>
       </c>
       <c r="R3" t="n">
-        <v>76.93832441711369</v>
+        <v>76.93832441711319</v>
       </c>
       <c r="S3" t="n">
-        <v>23.01736393801047</v>
+        <v>23.01736393801031</v>
       </c>
       <c r="T3" t="n">
-        <v>4.994795149712307</v>
+        <v>4.994795149712275</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08152549210629453</v>
+        <v>0.08152549210629399</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.038893156239775</v>
+        <v>1.038893156239768</v>
       </c>
       <c r="H4" t="n">
-        <v>9.236704607295456</v>
+        <v>9.236704607295396</v>
       </c>
       <c r="I4" t="n">
-        <v>31.24235055310159</v>
+        <v>31.24235055310139</v>
       </c>
       <c r="J4" t="n">
-        <v>73.44974614615205</v>
+        <v>73.44974614615158</v>
       </c>
       <c r="K4" t="n">
-        <v>120.7004957885847</v>
+        <v>120.7004957885839</v>
       </c>
       <c r="L4" t="n">
-        <v>154.4550788831389</v>
+        <v>154.4550788831379</v>
       </c>
       <c r="M4" t="n">
-        <v>162.8512244822039</v>
+        <v>162.8512244822028</v>
       </c>
       <c r="N4" t="n">
-        <v>158.9789863544012</v>
+        <v>158.9789863544002</v>
       </c>
       <c r="O4" t="n">
-        <v>146.8428253928729</v>
+        <v>146.842825392872</v>
       </c>
       <c r="P4" t="n">
-        <v>125.6494050055814</v>
+        <v>125.6494050055806</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.99313511022331</v>
+        <v>86.99313511022274</v>
       </c>
       <c r="R4" t="n">
-        <v>46.71241409783567</v>
+        <v>46.71241409783536</v>
       </c>
       <c r="S4" t="n">
-        <v>18.1050743682877</v>
+        <v>18.10507436828758</v>
       </c>
       <c r="T4" t="n">
-        <v>4.438907122115399</v>
+        <v>4.43890712211537</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05666689943126049</v>
+        <v>0.05666689943126012</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>144.2373595085355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443724</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214695</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862117</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>506.0735392239802</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,43 +32145,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862117</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>346.9084613860382</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,43 +32382,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356913</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359108</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>302.9675447508056</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>336.3457189021236</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>699.0496615458086</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>467.7715423565662</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>414.9172504145583</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.5245930222855</v>
+        <v>15.52459302228422</v>
       </c>
       <c r="K2" t="n">
-        <v>74.5183691361122</v>
+        <v>74.51836913611027</v>
       </c>
       <c r="L2" t="n">
-        <v>129.7211332055012</v>
+        <v>129.7211332054989</v>
       </c>
       <c r="M2" t="n">
-        <v>176.3290860292216</v>
+        <v>176.329086029219</v>
       </c>
       <c r="N2" t="n">
-        <v>183.8426874914299</v>
+        <v>183.8426874914272</v>
       </c>
       <c r="O2" t="n">
-        <v>160.1274757772919</v>
+        <v>160.1274757772894</v>
       </c>
       <c r="P2" t="n">
-        <v>101.8156000787083</v>
+        <v>101.8156000787061</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.79993544776761</v>
+        <v>27.79993544776599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>74.59240897746207</v>
+        <v>62.26016388413601</v>
       </c>
       <c r="L3" t="n">
-        <v>130.5069193349331</v>
+        <v>130.5069193349314</v>
       </c>
       <c r="M3" t="n">
-        <v>171.8478113433572</v>
+        <v>171.8478113433551</v>
       </c>
       <c r="N3" t="n">
-        <v>219.6382886189885</v>
+        <v>190.9502983440751</v>
       </c>
       <c r="O3" t="n">
-        <v>152.237980241566</v>
+        <v>152.2379802415641</v>
       </c>
       <c r="P3" t="n">
-        <v>102.6560509405931</v>
+        <v>102.6560509405915</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.19942073141817</v>
+        <v>59.21965609964737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>98.43100396270184</v>
+        <v>98.43100396270106</v>
       </c>
       <c r="L4" t="n">
-        <v>182.045104143455</v>
+        <v>182.045104143454</v>
       </c>
       <c r="M4" t="n">
-        <v>202.4351014440445</v>
+        <v>202.4351014440434</v>
       </c>
       <c r="N4" t="n">
-        <v>203.1111587336298</v>
+        <v>203.1111587336288</v>
       </c>
       <c r="O4" t="n">
-        <v>171.4279533069126</v>
+        <v>171.4279533069116</v>
       </c>
       <c r="P4" t="n">
-        <v>11.39746673904559</v>
+        <v>11.39746673903342</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8310918585289215</v>
+        <v>0.8310918585283531</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572289</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>577.9642335061964</v>
+        <v>622.4553810291986</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774858</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>6.395920534176487</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992795</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641933</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>372.09913180965</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789202</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641933</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992795</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>212.934053971708</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789202</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558171</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525775</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287873</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876631</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>205.0040068187903</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>556.4534171013642</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>325.6375084345479</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>283.575538331225</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
